--- a/gracianatortillafactory/public/List.xlsx
+++ b/gracianatortillafactory/public/List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkevakian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkevakian/GracianaTortillaFactory/gracianatortillafactory/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1C4B9E53-0F9A-CC4E-AE71-DE44922F88FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D2839-F38C-9D43-88EA-FDB15AA62A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{31ED5A5E-D542-B945-90BF-27384ACB705E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>BAT REG 4 | 5</t>
+  </si>
+  <si>
+    <t>4" 1/4 MINI CHIP TORTILLA 5 DZ. 37</t>
+  </si>
+  <si>
+    <t>6" 1/4 MINI FLOUR TORTILLA 5 DZ. 37</t>
+  </si>
+  <si>
+    <t>5" 1/4 MINI CHIP TORTILLA 5 DZ. 37</t>
+  </si>
+  <si>
+    <t>3" 1/4 MINI CORN TORTILLA 5 DZ. 37</t>
+  </si>
+  <si>
+    <t>5" 1/4 MINI CORN TORTILLA 5 DZ. 37</t>
   </si>
 </sst>
 </file>
@@ -400,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AC478C-6E04-A04F-BC1E-5FCA94FC0044}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,6 +471,72 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gracianatortillafactory/public/List.xlsx
+++ b/gracianatortillafactory/public/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkevakian/GracianaTortillaFactory/gracianatortillafactory/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D2839-F38C-9D43-88EA-FDB15AA62A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35637068-F528-554D-96F7-AD464CD80DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{31ED5A5E-D542-B945-90BF-27384ACB705E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AC478C-6E04-A04F-BC1E-5FCA94FC0044}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,6 +537,105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1030</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
